--- a/param.est.xlsx
+++ b/param.est.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patricia\Documents\578project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46540787-0043-48BB-9293-75F657E583D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8D954B-CC0B-47C8-98D1-0B94EBCCC0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4FE693EA-521A-45F5-9908-8543A93FD022}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Quantile</t>
   </si>
@@ -48,18 +48,6 @@
   </si>
   <si>
     <t>Interval Length</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Weibull</t>
-  </si>
-  <si>
-    <t>Log-normal</t>
-  </si>
-  <si>
-    <t>Log-logistic</t>
   </si>
 </sst>
 </file>
@@ -421,193 +409,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C548EE96-B263-42D8-9A43-2CB2E02EB04A}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.25</v>
       </c>
       <c r="B2" s="1">
+        <v>22.42</v>
+      </c>
+      <c r="C2" s="1">
+        <v>19.96</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25.19</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30.32</v>
+      </c>
+      <c r="C3" s="1">
+        <v>27.86</v>
+      </c>
+      <c r="D3" s="1">
+        <v>33.01</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B4" s="1">
+        <v>38.47</v>
+      </c>
+      <c r="C4" s="1">
+        <v>35.71</v>
+      </c>
+      <c r="D4" s="1">
+        <v>41.44</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0.25</v>
       </c>
-      <c r="C2" s="1">
-        <v>22.42</v>
-      </c>
-      <c r="D2" s="1">
-        <v>19.96</v>
-      </c>
-      <c r="E2" s="1">
-        <v>25.19</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5.23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+      <c r="B5" s="1">
+        <v>20.73</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18.77</v>
+      </c>
+      <c r="D5" s="1">
+        <v>22.89</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>0.5</v>
       </c>
-      <c r="C3" s="1">
-        <v>30.32</v>
-      </c>
-      <c r="D3" s="1">
-        <v>27.86</v>
-      </c>
-      <c r="E3" s="1">
-        <v>33.01</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="B6" s="1">
+        <v>27.97</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25.54</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30.63</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>0.75</v>
       </c>
-      <c r="C4" s="1">
-        <v>38.47</v>
-      </c>
-      <c r="D4" s="1">
-        <v>35.71</v>
-      </c>
-      <c r="E4" s="1">
-        <v>41.44</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="B7" s="1">
+        <v>37.74</v>
+      </c>
+      <c r="C7" s="1">
+        <v>34.06</v>
+      </c>
+      <c r="D7" s="1">
+        <v>41.83</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>0.25</v>
       </c>
-      <c r="C5" s="1">
-        <v>20.73</v>
-      </c>
-      <c r="D5" s="1">
-        <v>18.77</v>
-      </c>
-      <c r="E5" s="1">
-        <v>22.89</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4.1100000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+      <c r="B8" s="1">
+        <v>21.9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>19.77</v>
+      </c>
+      <c r="D8" s="1">
+        <v>24.27</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>0.5</v>
       </c>
-      <c r="C6" s="1">
-        <v>27.97</v>
-      </c>
-      <c r="D6" s="1">
-        <v>25.54</v>
-      </c>
-      <c r="E6" s="1">
-        <v>30.63</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="B9" s="1">
+        <v>28.88</v>
+      </c>
+      <c r="C9" s="1">
+        <v>26.41</v>
+      </c>
+      <c r="D9" s="1">
+        <v>31.59</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>0.75</v>
       </c>
-      <c r="C7" s="1">
-        <v>37.74</v>
-      </c>
-      <c r="D7" s="1">
-        <v>34.06</v>
-      </c>
-      <c r="E7" s="1">
-        <v>41.83</v>
-      </c>
-      <c r="F7" s="1">
-        <v>7.77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C8" s="1">
-        <v>21.9</v>
-      </c>
-      <c r="D8" s="1">
-        <v>19.77</v>
-      </c>
-      <c r="E8" s="1">
-        <v>24.27</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>28.88</v>
-      </c>
-      <c r="D9" s="1">
-        <v>26.41</v>
-      </c>
-      <c r="E9" s="1">
-        <v>31.59</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>0.75</v>
+        <v>38.090000000000003</v>
       </c>
       <c r="C10" s="1">
-        <v>38.090000000000003</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>34.450000000000003</v>
+        <v>42.12</v>
       </c>
       <c r="E10" s="1">
-        <v>42.12</v>
-      </c>
-      <c r="F10" s="1">
         <v>7.67</v>
       </c>
     </row>
